--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_ITAJAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4096FF07-A3F8-4C66-A922-E7B1BABD1C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F84834-76BE-476D-AC96-4232E5F3AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIAN - V4P4" sheetId="3" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>7</v>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F84834-76BE-476D-AC96-4232E5F3AF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE39B14-3A29-4465-B80F-7A98DAB9E0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -106,9 +106,6 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -139,13 +136,109 @@
     <t>comprimento_braco</t>
   </si>
   <si>
-    <t>.5</t>
-  </si>
-  <si>
     <t>poste_pista</t>
   </si>
   <si>
     <t>entre_postes</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>34.4</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.33</t>
   </si>
 </sst>
 </file>
@@ -155,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,6 +273,19 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -231,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -263,6 +369,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +597,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -497,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -542,29 +658,29 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -583,17 +699,17 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2">
-        <v>40</v>
-      </c>
-      <c r="Q2">
-        <v>7</v>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -606,14 +722,14 @@
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
+      <c r="C3" s="16">
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -625,17 +741,17 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3">
-        <v>21</v>
-      </c>
-      <c r="Q3">
-        <v>6</v>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
       </c>
       <c r="R3" s="12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -648,14 +764,14 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -667,17 +783,17 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4">
-        <v>25</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="T4" s="12">
         <v>2</v>
@@ -690,14 +806,14 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -709,20 +825,20 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5">
-        <v>36</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>61</v>
       </c>
       <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5">
         <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,14 +848,14 @@
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -751,20 +867,20 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>8</v>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6">
         <v>2</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,14 +890,14 @@
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -793,14 +909,20 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7">
-        <v>44.1</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>67</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -810,14 +932,14 @@
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -829,10 +951,21 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8">
-        <v>49.2</v>
-      </c>
-      <c r="T8" s="12"/>
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -841,14 +974,14 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -860,8 +993,20 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9">
-        <v>54.3</v>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -871,14 +1016,14 @@
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -890,11 +1035,21 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10">
-        <v>59.4</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -903,14 +1058,14 @@
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -922,8 +1077,20 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11">
-        <v>64.5</v>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,14 +1100,14 @@
       <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -952,8 +1119,20 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12">
-        <v>69.599999999999994</v>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,14 +1142,14 @@
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -982,8 +1161,20 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13">
-        <v>74.7</v>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,14 +1184,14 @@
       <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1012,6 +1203,21 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1020,14 +1226,14 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1039,6 +1245,21 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1047,14 +1268,14 @@
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
-        <v>2</v>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1066,19 +1287,34 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>85</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>14</v>
@@ -1093,22 +1329,37 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>89</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1120,22 +1371,37 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>93</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1147,22 +1413,37 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>71</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>95</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1175,21 +1456,21 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1202,21 +1483,21 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>101</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1229,14 +1510,14 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1256,14 +1537,14 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>109</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -1283,14 +1564,14 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>112</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1310,15 +1591,15 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>115</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="8">
-        <v>2</v>
+      <c r="C26" s="3">
+        <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>11</v>
@@ -1337,14 +1618,14 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>119</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1364,14 +1645,14 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>120</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -1391,14 +1672,14 @@
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1418,14 +1699,14 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>128</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -1445,14 +1726,14 @@
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>132</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1472,15 +1753,12 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>133</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
@@ -1506,9 +1784,6 @@
       <c r="B33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,14 +1808,11 @@
       <c r="B34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
       <c r="D34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1560,9 +1832,6 @@
       <c r="B35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
       </c>
@@ -1587,9 +1856,6 @@
       <c r="B36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
       <c r="D36" s="8" t="s">
         <v>11</v>
       </c>
@@ -1614,14 +1880,11 @@
       <c r="B37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
       <c r="D37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE39B14-3A29-4465-B80F-7A98DAB9E0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB2C41-E016-4003-972E-B797F6DDB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>0.33</t>
+  </si>
+  <si>
+    <t>Unilateral</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>distribuicao</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -292,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +340,26 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDBDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,11 +367,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -376,9 +425,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +667,7 @@
     <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -672,15 +728,18 @@
       <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -714,15 +773,18 @@
       <c r="T2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -756,8 +818,11 @@
       <c r="T3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>16</v>
       </c>
@@ -798,8 +863,11 @@
       <c r="T4" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>26</v>
       </c>
@@ -840,8 +908,11 @@
       <c r="T5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>27</v>
       </c>
@@ -882,8 +953,11 @@
       <c r="T6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>34</v>
       </c>
@@ -924,8 +998,11 @@
       <c r="T7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>36</v>
       </c>
@@ -966,8 +1043,11 @@
       <c r="T8" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>51</v>
       </c>
@@ -1008,8 +1088,11 @@
       <c r="T9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>59</v>
       </c>
@@ -1050,8 +1133,11 @@
       <c r="T10" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>60</v>
       </c>
@@ -1092,8 +1178,11 @@
       <c r="T11" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>68</v>
       </c>
@@ -1134,8 +1223,11 @@
       <c r="T12" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>69</v>
       </c>
@@ -1176,8 +1268,11 @@
       <c r="T13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>77</v>
       </c>
@@ -1218,8 +1313,11 @@
       <c r="T14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>80</v>
       </c>
@@ -1260,8 +1358,11 @@
       <c r="T15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>84</v>
       </c>
@@ -1302,8 +1403,11 @@
       <c r="T16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>85</v>
       </c>
@@ -1344,8 +1448,11 @@
       <c r="T17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>89</v>
       </c>
@@ -1386,8 +1493,11 @@
       <c r="T18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>93</v>
       </c>
@@ -1428,8 +1538,11 @@
       <c r="T19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>95</v>
       </c>
@@ -1455,8 +1568,11 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>99</v>
       </c>
@@ -1482,8 +1598,11 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>101</v>
       </c>
@@ -1509,8 +1628,11 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>105</v>
       </c>
@@ -1536,8 +1658,11 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>109</v>
       </c>
@@ -1563,8 +1688,11 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>112</v>
       </c>
@@ -1590,8 +1718,11 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>115</v>
       </c>
@@ -1617,8 +1748,11 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>119</v>
       </c>
@@ -1644,8 +1778,11 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>120</v>
       </c>
@@ -1671,8 +1808,11 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>126</v>
       </c>
@@ -1698,8 +1838,11 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>128</v>
       </c>
@@ -1725,8 +1868,11 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>132</v>
       </c>
@@ -1752,8 +1898,11 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>133</v>
       </c>
@@ -1776,8 +1925,11 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>136</v>
       </c>
@@ -1800,8 +1952,11 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>140</v>
       </c>
@@ -1824,8 +1979,11 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>142</v>
       </c>
@@ -1848,8 +2006,11 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>144</v>
       </c>
@@ -1872,8 +2033,11 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>148</v>
       </c>
@@ -1896,8 +2060,11 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1913,6 +2080,9 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
+      <c r="U38" s="18" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O38" xr:uid="{00000000-0009-0000-0000-000002000000}"/>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFB2C41-E016-4003-972E-B797F6DDB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFC2F4-9876-4E34-8AAD-6A8B6D7BE801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>distribuicao</t>
+  </si>
+  <si>
+    <t>bilateral ALTERNADA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,6 +668,7 @@
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="15" width="31.21875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -864,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BFC2F4-9876-4E34-8AAD-6A8B6D7BE801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA33C37-F7A5-420E-BB13-85AAB3449754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -244,13 +244,16 @@
     <t>Unilateral</t>
   </si>
   <si>
-    <t>bilateral</t>
-  </si>
-  <si>
     <t>distribuicao</t>
   </si>
   <si>
-    <t>bilateral ALTERNADA</t>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -385,6 +388,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -396,9 +414,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -421,12 +436,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -438,6 +447,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +674,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,8 +750,8 @@
       <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="19" t="s">
-        <v>74</v>
+      <c r="U1" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,1348 +761,1348 @@
       <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>60</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
-      <c r="U3" s="17" t="s">
-        <v>73</v>
+      <c r="U3" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="15" t="s">
         <v>61</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="11">
         <v>2</v>
       </c>
-      <c r="U4" s="18" t="s">
-        <v>75</v>
+      <c r="U4" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="14" t="s">
         <v>61</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>27</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="15" t="s">
         <v>61</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="15" t="s">
         <v>66</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="14" t="s">
         <v>67</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="15" t="s">
         <v>62</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="11">
         <v>2</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>51</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="14" t="s">
         <v>67</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>59</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="15" t="s">
         <v>62</v>
       </c>
       <c r="R10">
         <v>5</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="11">
         <v>2</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>60</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" t="s">
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>68</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="R12">
         <v>5</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>69</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" t="s">
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="14" t="s">
         <v>65</v>
       </c>
       <c r="T13" t="s">
         <v>64</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>77</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R14">
         <v>5</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>80</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="R15">
         <v>5</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="14" t="s">
         <v>69</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>84</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R16">
         <v>5</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="15" t="s">
         <v>70</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="U16" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>85</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="14" t="s">
         <v>63</v>
       </c>
       <c r="R17">
         <v>5</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="14" t="s">
         <v>70</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>89</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R18">
         <v>5</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="15" t="s">
         <v>70</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>93</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="R19">
         <v>5</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="14" t="s">
         <v>71</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
-      <c r="U19" s="17" t="s">
+      <c r="U19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>95</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="U20" s="18" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="U20" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>99</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="U21" s="17" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="U21" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>101</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="U22" s="18" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="U22" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>105</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="U23" s="17" t="s">
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="U23" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>109</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="U24" s="18" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="U24" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>112</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="U25" s="17" t="s">
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="U25" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>115</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="U26" s="18" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="U26" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="U27" s="17" t="s">
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="U27" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>120</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="U28" s="18" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="U28" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>126</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="U29" s="17" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="U29" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>128</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="U30" s="18" t="s">
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="U30" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>132</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="U31" s="17" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="U31" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>133</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="U32" s="18" t="s">
+      <c r="D32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="U32" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>136</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="U33" s="17" t="s">
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="U33" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>140</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="U34" s="18" t="s">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="U34" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>142</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="U35" s="17" t="s">
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="U35" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>144</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="U36" s="18" t="s">
+      <c r="D36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="U36" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>148</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="U37" s="17" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="U37" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="U38" s="18" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="U38" s="15" t="s">
         <v>72</v>
       </c>
     </row>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA33C37-F7A5-420E-BB13-85AAB3449754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45409FAC-7C0B-41CB-8D96-4F3ACD8FC6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="79">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>7.5</t>
+  </si>
+  <si>
+    <t>qtde_ruas</t>
+  </si>
+  <si>
+    <t>unilateral</t>
   </si>
 </sst>
 </file>
@@ -671,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +695,7 @@
     <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -753,8 +759,11 @@
       <c r="U1" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V1" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -796,10 +805,13 @@
         <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -843,8 +855,11 @@
       <c r="U3" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -888,8 +903,11 @@
       <c r="U4" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -933,8 +951,11 @@
       <c r="U5" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>27</v>
       </c>
@@ -978,8 +999,11 @@
       <c r="U6" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>34</v>
       </c>
@@ -1023,8 +1047,11 @@
       <c r="U7" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>36</v>
       </c>
@@ -1068,8 +1095,11 @@
       <c r="U8" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>51</v>
       </c>
@@ -1113,8 +1143,11 @@
       <c r="U9" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>59</v>
       </c>
@@ -1158,8 +1191,11 @@
       <c r="U10" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>60</v>
       </c>
@@ -1203,8 +1239,11 @@
       <c r="U11" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>68</v>
       </c>
@@ -1248,8 +1287,11 @@
       <c r="U12" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>69</v>
       </c>
@@ -1293,8 +1335,11 @@
       <c r="U13" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>77</v>
       </c>
@@ -1338,8 +1383,11 @@
       <c r="U14" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>80</v>
       </c>
@@ -1383,8 +1431,11 @@
       <c r="U15" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>84</v>
       </c>
@@ -1428,8 +1479,11 @@
       <c r="U16" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>85</v>
       </c>
@@ -1473,8 +1527,11 @@
       <c r="U17" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>89</v>
       </c>
@@ -1518,8 +1575,11 @@
       <c r="U18" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>93</v>
       </c>
@@ -1563,8 +1623,11 @@
       <c r="U19" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>95</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="U20" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>99</v>
       </c>
@@ -1623,8 +1689,11 @@
       <c r="U21" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>101</v>
       </c>
@@ -1653,8 +1722,11 @@
       <c r="U22" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>105</v>
       </c>
@@ -1683,8 +1755,11 @@
       <c r="U23" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>109</v>
       </c>
@@ -1713,8 +1788,11 @@
       <c r="U24" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>112</v>
       </c>
@@ -1743,8 +1821,11 @@
       <c r="U25" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>115</v>
       </c>
@@ -1774,7 +1855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>119</v>
       </c>
@@ -1804,7 +1885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>120</v>
       </c>
@@ -1834,7 +1915,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>126</v>
       </c>
@@ -1864,7 +1945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>128</v>
       </c>
@@ -1894,7 +1975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>132</v>
       </c>
@@ -1924,7 +2005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>133</v>
       </c>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45409FAC-7C0B-41CB-8D96-4F3ACD8FC6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790360E8-7D0B-4E60-B338-29ACA24ABB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -259,7 +259,40 @@
     <t>qtde_ruas</t>
   </si>
   <si>
-    <t>unilateral</t>
+    <t>larg_canteiro_central</t>
+  </si>
+  <si>
+    <t>canteiro central</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>pendor</t>
+  </si>
+  <si>
+    <t>.3</t>
+  </si>
+  <si>
+    <t>.5</t>
+  </si>
+  <si>
+    <t>.7</t>
+  </si>
+  <si>
+    <t>.9</t>
+  </si>
+  <si>
+    <t>.11</t>
+  </si>
+  <si>
+    <t>.13</t>
+  </si>
+  <si>
+    <t>.15</t>
+  </si>
+  <si>
+    <t>.17</t>
   </si>
 </sst>
 </file>
@@ -269,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,6 +352,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -371,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -409,11 +447,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -460,6 +507,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -677,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,9 +746,10 @@
     <col min="6" max="15" width="31.21875" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -762,8 +816,14 @@
       <c r="V1" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -805,13 +865,19 @@
         <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="20">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -858,8 +924,14 @@
       <c r="V3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -901,13 +973,19 @@
         <v>2</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="V4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -949,13 +1027,19 @@
         <v>2</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="21">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>27</v>
       </c>
@@ -1002,8 +1086,14 @@
       <c r="V6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W6" s="20">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>34</v>
       </c>
@@ -1050,8 +1140,14 @@
       <c r="V7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>3.4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>36</v>
       </c>
@@ -1098,8 +1194,14 @@
       <c r="V8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>3.8</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>51</v>
       </c>
@@ -1146,8 +1248,14 @@
       <c r="V9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>59</v>
       </c>
@@ -1194,8 +1302,14 @@
       <c r="V10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>60</v>
       </c>
@@ -1242,8 +1356,14 @@
       <c r="V11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>68</v>
       </c>
@@ -1290,8 +1410,14 @@
       <c r="V12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>5.4</v>
+      </c>
+      <c r="X12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>69</v>
       </c>
@@ -1338,8 +1464,14 @@
       <c r="V13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>77</v>
       </c>
@@ -1386,8 +1518,14 @@
       <c r="V14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14" s="20">
+        <v>6.2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>80</v>
       </c>
@@ -1434,8 +1572,14 @@
       <c r="V15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>6.6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>84</v>
       </c>
@@ -1481,6 +1625,9 @@
       </c>
       <c r="V16">
         <v>1</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2189,6 +2336,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O38" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790360E8-7D0B-4E60-B338-29ACA24ABB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAB0A9-60DE-409C-AA74-1689ED547578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>6.3</t>
-  </si>
-  <si>
-    <t>34.4</t>
   </si>
   <si>
     <t>32.0</t>
@@ -732,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -811,16 +808,16 @@
         <v>36</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="X1" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -849,32 +846,32 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="13" t="s">
-        <v>45</v>
+      <c r="P2" s="13">
+        <v>32</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,7 +879,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -904,22 +901,22 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R3" s="11">
         <v>5</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" s="12">
         <v>2</v>
@@ -928,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="15">
         <v>1</v>
@@ -958,22 +955,22 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R4">
         <v>5</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T4" s="11">
         <v>2</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -990,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -1012,22 +1009,22 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5">
         <v>5</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1044,7 +1041,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -1069,19 +1066,19 @@
         <v>16</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -1120,22 +1117,22 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7">
         <v>5</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1144,7 +1141,7 @@
         <v>3.4</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,7 +1149,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -1174,22 +1171,22 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8">
         <v>5</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T8" s="11">
         <v>2</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1206,7 +1203,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14">
         <v>1</v>
@@ -1228,22 +1225,22 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1260,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -1282,10 +1279,10 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -1297,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1306,7 +1303,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="X10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1314,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
@@ -1336,7 +1333,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="14" t="s">
         <v>13</v>
@@ -1345,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1360,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="X11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1368,7 +1365,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -1390,7 +1387,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="15" t="s">
         <v>13</v>
@@ -1399,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1422,7 +1419,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
@@ -1453,13 +1450,13 @@
         <v>5</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1476,7 +1473,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -1498,22 +1495,22 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R14">
         <v>5</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -1522,7 +1519,7 @@
         <v>6.2</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1527,7 @@
         <v>80</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="14">
         <v>2</v>
@@ -1552,22 +1549,22 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R15">
         <v>5</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -1576,7 +1573,7 @@
         <v>6.6</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1584,7 +1581,7 @@
         <v>84</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -1606,22 +1603,22 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R16">
         <v>5</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -1635,7 +1632,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="14">
         <v>2</v>
@@ -1657,22 +1654,22 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R17">
         <v>5</v>
       </c>
       <c r="S17" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -1683,7 +1680,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -1705,22 +1702,22 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R18">
         <v>5</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -1731,7 +1728,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
@@ -1753,22 +1750,22 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R19">
         <v>5</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -1801,7 +1798,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="U20" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -1834,7 +1831,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="U21" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -1867,7 +1864,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="U22" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -1900,7 +1897,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="U23" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -1933,7 +1930,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="U24" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -1966,7 +1963,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="U25" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -1999,7 +1996,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="U26" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,7 +2026,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="U27" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2059,7 +2056,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="U28" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2089,7 +2086,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="U29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2119,7 +2116,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="U30" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2149,7 +2146,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="U31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,7 +2173,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="U32" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,7 +2200,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="U33" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2230,7 +2227,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="U34" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2254,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="U35" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2284,7 +2281,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="U36" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2311,7 +2308,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="U37" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2331,7 +2328,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="U38" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CAB0A9-60DE-409C-AA74-1689ED547578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715595F4-0C10-4FAC-B5ED-B54C640F87E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="101">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -290,6 +290,42 @@
   </si>
   <si>
     <t>.17</t>
+  </si>
+  <si>
+    <t>classe_via</t>
+  </si>
+  <si>
+    <t>classe_passeio</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -727,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -746,7 +782,7 @@
     <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -819,8 +855,14 @@
       <c r="X1" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -862,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -873,8 +915,14 @@
       <c r="X2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -927,8 +975,14 @@
       <c r="X3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -981,8 +1035,14 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1035,8 +1095,14 @@
       <c r="X5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>27</v>
       </c>
@@ -1089,8 +1155,14 @@
       <c r="X6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>34</v>
       </c>
@@ -1143,8 +1215,14 @@
       <c r="X7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>36</v>
       </c>
@@ -1197,8 +1275,14 @@
       <c r="X8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>51</v>
       </c>
@@ -1251,8 +1335,14 @@
       <c r="X9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>59</v>
       </c>
@@ -1305,8 +1395,14 @@
       <c r="X10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>60</v>
       </c>
@@ -1359,8 +1455,14 @@
       <c r="X11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>68</v>
       </c>
@@ -1413,8 +1515,14 @@
       <c r="X12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>69</v>
       </c>
@@ -1467,8 +1575,14 @@
       <c r="X13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>77</v>
       </c>
@@ -1521,8 +1635,14 @@
       <c r="X14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>80</v>
       </c>
@@ -1575,8 +1695,14 @@
       <c r="X15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>84</v>
       </c>
@@ -1625,6 +1751,12 @@
       </c>
       <c r="W16">
         <v>7</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715595F4-0C10-4FAC-B5ED-B54C640F87E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC905A0-2772-4961-A8AE-BB89028D22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V2">
         <v>1</v>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC905A0-2772-4961-A8AE-BB89028D22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B386008-C336-49E6-A422-C9486BF36BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="103">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>luminaria_escolhida</t>
+  </si>
+  <si>
+    <t>angulo_escolhido</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,9 +786,10 @@
     <col min="20" max="20" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -861,8 +868,14 @@
       <c r="Z1" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -922,7 +935,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>9</v>
       </c>
@@ -982,7 +995,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>26</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>27</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>34</v>
       </c>
@@ -1222,7 +1235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>36</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>51</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>59</v>
       </c>
@@ -1402,7 +1415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>60</v>
       </c>
@@ -1462,7 +1475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>68</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>69</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>77</v>
       </c>
@@ -1642,7 +1655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>80</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>84</v>
       </c>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A27AB-EE3D-4F74-AAD6-99F202633F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD98A20-B22E-44B2-9697-ACC0A18D4148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="121">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -796,7 +796,7 @@
   <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32:V37"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -918,8 +918,8 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
+      <c r="E2" s="7">
+        <v>0</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>84</v>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T2" s="15">
         <v>2</v>
@@ -966,10 +966,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>84</v>
@@ -1018,8 +1018,8 @@
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
+      <c r="E4" s="9">
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>16</v>
@@ -1065,8 +1065,8 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
+      <c r="D5" s="8">
+        <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>

--- a/table_itajai_test.xlsx
+++ b/table_itajai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminDell\Desktop\AUTOMATIZACAO_DIALUX_ITAJAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD98A20-B22E-44B2-9697-ACC0A18D4148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96DA4-96EC-4124-85D8-277CEFBC8774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="152">
   <si>
     <t>Quantidade Material 17</t>
   </si>
@@ -190,30 +190,6 @@
     <t>pendor</t>
   </si>
   <si>
-    <t>.3</t>
-  </si>
-  <si>
-    <t>.5</t>
-  </si>
-  <si>
-    <t>.7</t>
-  </si>
-  <si>
-    <t>.9</t>
-  </si>
-  <si>
-    <t>.11</t>
-  </si>
-  <si>
-    <t>.13</t>
-  </si>
-  <si>
-    <t>.15</t>
-  </si>
-  <si>
-    <t>.17</t>
-  </si>
-  <si>
     <t>classe_via</t>
   </si>
   <si>
@@ -386,13 +362,130 @@
   </si>
   <si>
     <t>3.2</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>45.1</t>
+  </si>
+  <si>
+    <t>39.6</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -425,6 +518,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -487,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -525,11 +625,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,6 +692,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -890,19 +1014,19 @@
         <v>54</v>
       </c>
       <c r="Y1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,11 +1042,11 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
-        <v>0</v>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>21</v>
@@ -931,28 +1055,24 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T2" s="15">
         <v>2</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="1">
-        <v>3</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
       <c r="Y2" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,13 +1086,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>19</v>
@@ -987,22 +1107,18 @@
         <v>2</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
       <c r="Y3" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1018,8 +1134,8 @@
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>16</v>
@@ -1042,17 +1158,13 @@
       <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="W4" s="1">
-        <v>3</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
       <c r="Y4" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,8 +1177,8 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>14</v>
@@ -1092,17 +1204,13 @@
       <c r="V5" s="1">
         <v>1</v>
       </c>
-      <c r="W5" s="1">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1">
-        <v>2</v>
-      </c>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
       <c r="Y5" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,7 +1230,7 @@
         <v>22</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>13</v>
@@ -1142,17 +1250,13 @@
       <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="W6" s="1">
-        <v>3</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="Z6" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1160,7 +1264,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
@@ -1172,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>12</v>
@@ -1181,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T7" s="16">
         <v>2</v>
@@ -1192,17 +1296,13 @@
       <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="W7" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
       <c r="Y7" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>12</v>
@@ -1242,17 +1342,13 @@
       <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="W8" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="X8" s="1">
-        <v>3</v>
-      </c>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
       <c r="Y8" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1272,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>43</v>
@@ -1292,17 +1388,13 @@
       <c r="V9" s="1">
         <v>1</v>
       </c>
-      <c r="W9" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="X9" s="1">
-        <v>4</v>
-      </c>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
       <c r="Y9" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,7 +1402,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1342,17 +1434,13 @@
       <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="W10" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="X10" s="1" t="s">
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="Z10" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1448,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -1372,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>43</v>
@@ -1392,17 +1480,13 @@
       <c r="V11" s="1">
         <v>1</v>
       </c>
-      <c r="W11" s="1">
-        <v>5</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
       <c r="Y11" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>19</v>
@@ -1437,22 +1521,18 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="X12" s="1">
-        <v>5</v>
-      </c>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
       <c r="Y12" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,22 +1567,18 @@
         <v>2</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V13" s="1">
         <v>1</v>
       </c>
-      <c r="W13" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="X13" s="1">
-        <v>6</v>
-      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
       <c r="Y13" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z13" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1522,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>19</v>
@@ -1531,28 +1607,24 @@
         <v>5</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T14" s="17">
         <v>2</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
       </c>
-      <c r="W14" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
       <c r="Y14" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z14" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,7 +1644,7 @@
         <v>24</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>19</v>
@@ -1581,28 +1653,24 @@
         <v>5</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T15" s="16">
         <v>2</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V15" s="1">
         <v>1</v>
       </c>
-      <c r="W15" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
       <c r="Y15" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>19</v>
@@ -1637,22 +1705,18 @@
         <v>2</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>
       </c>
-      <c r="W16" s="1">
-        <v>7</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1672,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>19</v>
@@ -1681,28 +1745,24 @@
         <v>5</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T17" s="16">
         <v>2</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
       </c>
-      <c r="W17" s="1">
-        <v>2</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
       <c r="Y17" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1710,7 +1770,7 @@
         <v>89</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" s="9">
         <v>3</v>
@@ -1722,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>50</v>
@@ -1737,22 +1797,18 @@
         <v>2</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
       </c>
-      <c r="W18" s="1">
-        <v>3</v>
-      </c>
-      <c r="X18" s="1">
-        <v>5</v>
-      </c>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
       <c r="Y18" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1760,7 +1816,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -1772,7 +1828,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>50</v>
@@ -1787,22 +1843,18 @@
         <v>2</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
       </c>
-      <c r="W19" s="1">
-        <v>2</v>
-      </c>
-      <c r="X19" s="1">
-        <v>6</v>
-      </c>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
       <c r="Y19" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,7 +1862,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C20" s="9">
         <v>4</v>
@@ -1822,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>12</v>
@@ -1837,22 +1889,18 @@
         <v>3</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V20" s="1">
         <v>1</v>
       </c>
-      <c r="W20" s="1">
-        <v>3</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
       <c r="Y20" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1908,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C21" s="8">
         <v>3</v>
@@ -1872,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>50</v>
@@ -1887,22 +1935,18 @@
         <v>2</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V21" s="1">
         <v>1</v>
       </c>
-      <c r="W21" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
       <c r="Y21" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9">
         <v>3</v>
@@ -1922,7 +1966,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>50</v>
@@ -1937,22 +1981,18 @@
         <v>2</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V22" s="1">
         <v>1</v>
       </c>
-      <c r="W22" s="1">
-        <v>2</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1960,7 +2000,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8">
         <v>3</v>
@@ -1972,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>50</v>
@@ -1987,22 +2027,18 @@
         <v>2</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V23" s="1">
         <v>1</v>
       </c>
-      <c r="W23" s="1">
-        <v>3</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
       <c r="Y23" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2010,7 +2046,7 @@
         <v>109</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C24" s="9">
         <v>3</v>
@@ -2022,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>50</v>
@@ -2037,22 +2073,18 @@
         <v>2</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="V24" s="1">
         <v>1</v>
       </c>
-      <c r="W24" s="1">
-        <v>2</v>
-      </c>
-      <c r="X24" s="1">
-        <v>1</v>
-      </c>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
       <c r="Y24" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2060,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
@@ -2075,7 +2107,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="R25" s="1">
         <v>5</v>
@@ -2092,17 +2124,13 @@
       <c r="V25" s="1">
         <v>1</v>
       </c>
-      <c r="W25" s="1">
-        <v>3</v>
-      </c>
-      <c r="X25" s="1">
-        <v>2</v>
-      </c>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
       <c r="Y25" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,10 +2150,10 @@
         <v>22</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="R26" s="1">
         <v>5</v>
@@ -2142,17 +2170,13 @@
       <c r="V26" s="1">
         <v>1</v>
       </c>
-      <c r="W26" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X26" s="1" t="s">
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="Z26" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2172,7 +2196,7 @@
         <v>11</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>12</v>
@@ -2192,17 +2216,13 @@
       <c r="V27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
-        <v>2</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
       <c r="Y27" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2210,7 +2230,7 @@
         <v>120</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9">
         <v>2</v>
@@ -2222,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>12</v>
@@ -2242,17 +2262,13 @@
       <c r="V28" s="1">
         <v>1</v>
       </c>
-      <c r="W28" s="1">
-        <v>3</v>
-      </c>
-      <c r="X28" s="1">
-        <v>3</v>
-      </c>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
       <c r="Y28" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z28" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2260,7 +2276,7 @@
         <v>126</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -2272,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>12</v>
@@ -2292,17 +2308,13 @@
       <c r="V29" s="1">
         <v>1</v>
       </c>
-      <c r="W29" s="1">
-        <v>2</v>
-      </c>
-      <c r="X29" s="1">
-        <v>4</v>
-      </c>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
       <c r="Y29" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z29" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2310,7 +2322,7 @@
         <v>128</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C30" s="9">
         <v>2</v>
@@ -2342,17 +2354,13 @@
       <c r="V30" s="1">
         <v>1</v>
       </c>
-      <c r="W30" s="1">
-        <v>3</v>
-      </c>
-      <c r="X30" s="1" t="s">
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y30" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="Z30" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2360,7 +2368,7 @@
         <v>132</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -2372,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>12</v>
@@ -2392,17 +2400,13 @@
       <c r="V31" s="1">
         <v>1</v>
       </c>
-      <c r="W31" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
       <c r="Y31" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z31" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2410,7 +2414,7 @@
         <v>133</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C32" s="9">
         <v>2</v>
@@ -2422,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>12</v>
@@ -2442,17 +2446,13 @@
       <c r="V32" s="1">
         <v>1</v>
       </c>
-      <c r="W32" s="1">
-        <v>2</v>
-      </c>
-      <c r="X32" s="1">
-        <v>5</v>
-      </c>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
       <c r="Y32" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z32" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>136</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" s="8">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>12</v>
@@ -2492,17 +2492,13 @@
       <c r="V33" s="1">
         <v>1</v>
       </c>
-      <c r="W33" s="1">
-        <v>3</v>
-      </c>
-      <c r="X33" s="1">
-        <v>6</v>
-      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
       <c r="Y33" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z33" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2510,7 +2506,7 @@
         <v>140</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C34" s="9">
         <v>2</v>
@@ -2522,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>12</v>
@@ -2542,17 +2538,13 @@
       <c r="V34" s="1">
         <v>1</v>
       </c>
-      <c r="W34" s="1">
-        <v>2</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
       <c r="Y34" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2560,7 +2552,7 @@
         <v>142</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C35" s="8">
         <v>2</v>
@@ -2572,7 +2564,7 @@
         <v>11</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>12</v>
@@ -2592,17 +2584,13 @@
       <c r="V35" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="1">
-        <v>3</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
       <c r="Y35" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z35" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2610,7 +2598,7 @@
         <v>144</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C36" s="9">
         <v>2</v>
@@ -2622,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>12</v>
@@ -2642,17 +2630,13 @@
       <c r="V36" s="1">
         <v>1</v>
       </c>
-      <c r="W36" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X36" s="1" t="s">
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Y36" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="Z36" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2660,7 +2644,7 @@
         <v>148</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C37" s="8">
         <v>2</v>
@@ -2672,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>12</v>
@@ -2692,22 +2676,18 @@
       <c r="V37" s="1">
         <v>1</v>
       </c>
-      <c r="W37" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
       <c r="Y37" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z37" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C38" s="9">
         <v>2</v>
@@ -2719,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>12</v>
@@ -2733,11 +2713,13 @@
       <c r="U38" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
       <c r="Y38" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2768,16 +2750,18 @@
       <c r="U39" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
       <c r="Y39" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -2789,7 +2773,7 @@
         <v>11</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>12</v>
@@ -2803,16 +2787,18 @@
       <c r="U40" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
       <c r="Y40" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -2824,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>12</v>
@@ -2838,11 +2824,13 @@
       <c r="U41" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
       <c r="Y41" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2859,13 +2847,13 @@
         <v>11</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>12</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="T42" s="17">
         <v>0.5</v>
@@ -2873,11 +2861,13 @@
       <c r="U42" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
       <c r="Y42" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2894,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>12</v>
@@ -2908,11 +2898,13 @@
       <c r="U43" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
       <c r="Y43" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P44" s="9" t="s">
         <v>38</v>
@@ -2943,11 +2935,13 @@
       <c r="U44" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
       <c r="Y44" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q45" s="8" t="s">
         <v>43</v>
@@ -2978,11 +2972,13 @@
       <c r="U45" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
       <c r="Y45" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2999,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>51</v>
@@ -3013,11 +3009,13 @@
       <c r="U46" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
       <c r="Y46" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3034,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>13</v>
@@ -3048,11 +3046,13 @@
       <c r="U47" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
       <c r="Y47" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3069,7 +3069,7 @@
         <v>11</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q48" s="9" t="s">
         <v>51</v>
@@ -3083,14 +3083,16 @@
       <c r="U48" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
       <c r="Y48" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>13</v>
@@ -3118,8 +3120,16 @@
       <c r="U49" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z49" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="Q50" s="9" t="s">
         <v>12</v>
@@ -3145,10 +3155,18 @@
         <v>2</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="Q51" s="8" t="s">
         <v>51</v>
@@ -3176,8 +3194,16 @@
       <c r="U51" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z51" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
         <v>12</v>
       </c>
@@ -3191,7 +3217,7 @@
         <v>11</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>13</v>
@@ -3205,8 +3231,16 @@
       <c r="U52" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z52" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>43</v>
       </c>
@@ -3220,7 +3254,7 @@
         <v>11</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q53" s="8" t="s">
         <v>43</v>
@@ -3232,10 +3266,18 @@
         <v>2</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z53" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>13</v>
       </c>
@@ -3249,7 +3291,7 @@
         <v>17</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>13</v>
@@ -3263,10 +3305,18 @@
       <c r="U54" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C55" s="8">
         <v>1</v>
@@ -3292,10 +3342,18 @@
       <c r="U55" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z55" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C56" s="9">
         <v>2</v>
@@ -3307,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>12</v>
@@ -3321,10 +3379,18 @@
       <c r="U56" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z56" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
@@ -3336,10 +3402,10 @@
         <v>11</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="S57" s="8" t="s">
         <v>45</v>
@@ -3350,8 +3416,16 @@
       <c r="U57" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z57" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3439,7 @@
         <v>15</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>51</v>
@@ -3379,10 +3453,18 @@
       <c r="U58" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z58" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -3408,8 +3490,16 @@
       <c r="U59" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z59" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>12</v>
       </c>
@@ -3423,7 +3513,7 @@
         <v>25</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>42</v>
@@ -3435,10 +3525,18 @@
         <v>2</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z60" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3550,7 @@
         <v>25</v>
       </c>
       <c r="P61" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q61" s="8" t="s">
         <v>42</v>
@@ -3464,10 +3562,18 @@
         <v>2</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z61" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9" t="s">
         <v>12</v>
       </c>
@@ -3481,7 +3587,7 @@
         <v>25</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Q62" s="9" t="s">
         <v>42</v>
@@ -3492,8 +3598,19 @@
       <c r="T62" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U62" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z62" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>12</v>
       </c>
@@ -3507,7 +3624,7 @@
         <v>25</v>
       </c>
       <c r="P63" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q63" s="8" t="s">
         <v>42</v>
@@ -3518,8 +3635,19 @@
       <c r="T63" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z63" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
@@ -3544,8 +3672,19 @@
       <c r="T64" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U64" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z64" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>12</v>
       </c>
@@ -3559,7 +3698,7 @@
         <v>25</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q65" s="8" t="s">
         <v>42</v>
@@ -3570,8 +3709,19 @@
       <c r="T65" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U65" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z65" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="9" t="s">
         <v>12</v>
       </c>
@@ -3590,11 +3740,25 @@
       <c r="Q66" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="S66" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="T66" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U66" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z66" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>12</v>
       </c>
@@ -3608,13 +3772,30 @@
         <v>25</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="68" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="16">
+        <v>2</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z67" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="9" t="s">
         <v>12</v>
       </c>
@@ -3628,13 +3809,30 @@
         <v>25</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T68" s="17">
+        <v>2</v>
+      </c>
+      <c r="U68" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z68" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>12</v>
       </c>
@@ -3648,13 +3846,30 @@
         <v>25</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Q69" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T69" s="16">
+        <v>2</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z69" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>12</v>
       </c>
@@ -3673,8 +3888,25 @@
       <c r="Q70" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T70" s="17">
+        <v>2</v>
+      </c>
+      <c r="U70" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z70" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>12</v>
       </c>
@@ -3693,8 +3925,25 @@
       <c r="Q71" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T71" s="16">
+        <v>2</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z71" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>12</v>
       </c>
@@ -3708,13 +3957,30 @@
         <v>25</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q72" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T72" s="17">
+        <v>2</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z72" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>12</v>
       </c>
@@ -3728,13 +3994,30 @@
         <v>25</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q73" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" s="16">
+        <v>2</v>
+      </c>
+      <c r="U73" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z73" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>12</v>
       </c>
@@ -3748,13 +4031,30 @@
         <v>25</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q74" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T74" s="18">
+        <v>2</v>
+      </c>
+      <c r="U74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z74" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>12</v>
       </c>
@@ -3768,13 +4068,30 @@
         <v>25</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q75" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S75" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T75" s="16">
+        <v>2</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z75" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>12</v>
       </c>
@@ -3788,13 +4105,30 @@
         <v>25</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T76" s="17">
+        <v>2</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z76" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>12</v>
       </c>
@@ -3808,13 +4142,30 @@
         <v>25</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T77" s="16">
+        <v>2</v>
+      </c>
+      <c r="U77" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z77" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>19</v>
       </c>
@@ -3833,32 +4184,110 @@
       <c r="Q78" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T78" s="17">
+        <v>2</v>
+      </c>
+      <c r="U78" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z78" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Q79" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="80" spans="2:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T79" s="16">
+        <v>1</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z79" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T80" s="17">
+        <v>2</v>
+      </c>
+      <c r="U80" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z80" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="P81" s="8" t="s">
         <v>38</v>
@@ -3866,560 +4295,4721 @@
       <c r="Q81" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="82" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T81" s="16">
+        <v>2</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z81" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q82" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T82" s="17">
+        <v>2</v>
+      </c>
+      <c r="U82" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z82" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C83" s="8">
+        <v>1</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T83" s="16">
+        <v>2</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z83" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q84" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S84" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T84" s="17">
+        <v>3</v>
+      </c>
+      <c r="U84" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z84" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="8">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T85" s="16">
+        <v>3</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z85" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="9">
+        <v>1</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T86" s="17">
+        <v>3</v>
+      </c>
+      <c r="U86" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z86" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T87" s="16">
+        <v>3</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z87" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="9">
+        <v>1</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T88" s="17">
+        <v>3</v>
+      </c>
+      <c r="U88" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z88" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T89" s="16">
+        <v>2</v>
+      </c>
+      <c r="U89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z89" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="9">
+        <v>1</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q90" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T90" s="17">
+        <v>2</v>
+      </c>
+      <c r="U90" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z90" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="8">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T91" s="16">
+        <v>2</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z91" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T92" s="17">
+        <v>2</v>
+      </c>
+      <c r="U92" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z92" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T93" s="16">
+        <v>2</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z93" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T94" s="17">
+        <v>2</v>
+      </c>
+      <c r="U94" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z94" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T95" s="16">
+        <v>2</v>
+      </c>
+      <c r="U95" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z95" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q96" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T96" s="17">
+        <v>2</v>
+      </c>
+      <c r="U96" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z96" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="8">
+        <v>1</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T97" s="16">
+        <v>2</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z97" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q98" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T98" s="17">
+        <v>2</v>
+      </c>
+      <c r="U98" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z98" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="8">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S99" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="T99" s="16">
+        <v>2</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z99" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="9">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q100" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T100" s="17">
+        <v>2</v>
+      </c>
+      <c r="U100" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z100" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="8">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T101" s="16">
+        <v>2</v>
+      </c>
+      <c r="U101" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z101" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="9">
+        <v>1</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q102" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T102" s="17">
+        <v>2</v>
+      </c>
+      <c r="U102" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z102" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="8">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S103" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T103" s="16">
+        <v>2</v>
+      </c>
+      <c r="U103" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z103" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q104" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S104" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T104" s="17">
+        <v>2</v>
+      </c>
+      <c r="U104" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z104" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S105" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="T105" s="16">
+        <v>2</v>
+      </c>
+      <c r="U105" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W105" s="20"/>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z105" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="9">
+        <v>1</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S106" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T106" s="17">
+        <v>2</v>
+      </c>
+      <c r="U106" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z106" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="8">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S107" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="T107" s="16">
+        <v>2</v>
+      </c>
+      <c r="U107" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z107" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="9">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P108" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q108" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S108" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T108" s="17">
+        <v>2</v>
+      </c>
+      <c r="U108" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z108" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="8">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S109" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T109" s="16">
+        <v>2</v>
+      </c>
+      <c r="U109" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z109" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P110" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q110" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S110" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T110" s="17">
+        <v>2</v>
+      </c>
+      <c r="U110" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z110" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="8">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q111" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T111" s="16">
+        <v>2</v>
+      </c>
+      <c r="U111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z111" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P112" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q112" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S112" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T112" s="17">
+        <v>2</v>
+      </c>
+      <c r="U112" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W112" s="20"/>
+      <c r="X112" s="20"/>
+      <c r="Y112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z112" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S113" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T113" s="16">
+        <v>2</v>
+      </c>
+      <c r="U113" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z113" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="9">
+        <v>1</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q114" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T114" s="18">
+        <v>2</v>
+      </c>
+      <c r="U114" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W114" s="20"/>
+      <c r="X114" s="20"/>
+      <c r="Y114" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z114" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="8">
+        <v>1</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S115" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T115" s="16">
+        <v>2</v>
+      </c>
+      <c r="U115" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
+      <c r="Y115" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z115" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="9">
+        <v>1</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q116" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S116" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T116" s="17">
+        <v>2</v>
+      </c>
+      <c r="U116" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W116" s="20"/>
+      <c r="X116" s="20"/>
+      <c r="Y116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z116" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="8">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S117" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T117" s="16">
+        <v>2</v>
+      </c>
+      <c r="U117" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W117" s="20"/>
+      <c r="X117" s="20"/>
+      <c r="Y117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z117" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="9">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q118" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S118" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T118" s="17">
+        <v>2</v>
+      </c>
+      <c r="U118" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W118" s="20"/>
+      <c r="X118" s="20"/>
+      <c r="Y118" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z118" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="8">
+        <v>1</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S119" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T119" s="16">
+        <v>2</v>
+      </c>
+      <c r="U119" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W119" s="20"/>
+      <c r="X119" s="20"/>
+      <c r="Y119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z119" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="9">
+        <v>1</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P120" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q120" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S120" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="T120" s="17">
+        <v>2</v>
+      </c>
+      <c r="U120" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W120" s="20"/>
+      <c r="X120" s="20"/>
+      <c r="Y120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z120" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="8">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S121" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T121" s="16">
+        <v>2</v>
+      </c>
+      <c r="U121" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W121" s="20"/>
+      <c r="X121" s="20"/>
+      <c r="Y121" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z121" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="9">
+        <v>1</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P122" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q122" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S122" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T122" s="17">
+        <v>2</v>
+      </c>
+      <c r="U122" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z122" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="8">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P123" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T123" s="16">
+        <v>2</v>
+      </c>
+      <c r="U123" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W123" s="20"/>
+      <c r="X123" s="20"/>
+      <c r="Y123" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z123" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="9">
+        <v>1</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P124" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q124" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S124" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="T124" s="17">
+        <v>2</v>
+      </c>
+      <c r="U124" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W124" s="20"/>
+      <c r="X124" s="20"/>
+      <c r="Y124" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z124" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="8">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S125" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T125" s="16">
+        <v>2</v>
+      </c>
+      <c r="U125" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W125" s="20"/>
+      <c r="X125" s="20"/>
+      <c r="Y125" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z125" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="9">
+        <v>1</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q126" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S126" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T126" s="17">
+        <v>2</v>
+      </c>
+      <c r="U126" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
+      <c r="Y126" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z126" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="8">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S127" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T127" s="16">
+        <v>2</v>
+      </c>
+      <c r="U127" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W127" s="20"/>
+      <c r="X127" s="20"/>
+      <c r="Y127" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z127" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="9">
+        <v>1</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P128" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q128" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S128" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T128" s="17">
+        <v>2</v>
+      </c>
+      <c r="U128" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W128" s="20"/>
+      <c r="X128" s="20"/>
+      <c r="Y128" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z128" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="8">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T129" s="16">
+        <v>2</v>
+      </c>
+      <c r="U129" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W129" s="20"/>
+      <c r="X129" s="20"/>
+      <c r="Y129" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z129" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="9">
+        <v>1</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P130" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q130" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S130" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T130" s="17">
+        <v>2</v>
+      </c>
+      <c r="U130" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W130" s="20"/>
+      <c r="X130" s="20"/>
+      <c r="Y130" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z130" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="8">
+        <v>1</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S131" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T131" s="16">
+        <v>2</v>
+      </c>
+      <c r="U131" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W131" s="20"/>
+      <c r="X131" s="20"/>
+      <c r="Y131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z131" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="9">
+        <v>1</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P132" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q132" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S132" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T132" s="17">
+        <v>2</v>
+      </c>
+      <c r="U132" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W132" s="20"/>
+      <c r="X132" s="20"/>
+      <c r="Y132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z132" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="8">
+        <v>2</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P133" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S133" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T133" s="16">
+        <v>2</v>
+      </c>
+      <c r="U133" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W133" s="20"/>
+      <c r="X133" s="20"/>
+      <c r="Y133" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z133" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="9">
+        <v>2</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P134" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q134" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S134" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T134" s="17">
+        <v>2</v>
+      </c>
+      <c r="U134" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z134" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="8">
+        <v>2</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P135" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q135" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S135" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T135" s="16">
+        <v>2</v>
+      </c>
+      <c r="U135" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W135" s="20"/>
+      <c r="X135" s="20"/>
+      <c r="Y135" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z135" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="9">
+        <v>2</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P136" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S136" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T136" s="17">
+        <v>2</v>
+      </c>
+      <c r="U136" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W136" s="20"/>
+      <c r="X136" s="20"/>
+      <c r="Y136" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z136" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="8">
+        <v>1</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P137" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S137" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T137" s="16">
+        <v>2</v>
+      </c>
+      <c r="U137" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="W137" s="20"/>
+      <c r="X137" s="20"/>
+      <c r="Y137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z137" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="C138" s="9">
+        <v>1</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P138" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q138" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S138" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T138" s="17">
+        <v>3</v>
+      </c>
+      <c r="U138" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W138" s="20"/>
+      <c r="X138" s="20"/>
+      <c r="Y138" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z138" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="8">
+        <v>1</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P139" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q139" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S139" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="T139" s="16">
+        <v>3</v>
+      </c>
+      <c r="U139" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z139" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="9">
+        <v>1</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P140" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q140" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S140" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T140" s="17">
+        <v>2</v>
+      </c>
+      <c r="U140" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W140" s="19"/>
+      <c r="X140" s="19"/>
+      <c r="Y140" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z140" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P141" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q141" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S141" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T141" s="16">
+        <v>3</v>
+      </c>
+      <c r="U141" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W141" s="19"/>
+      <c r="X141" s="19"/>
+      <c r="Y141" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z141" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="9">
+        <v>1</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P142" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q142" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T142" s="17">
+        <v>2</v>
+      </c>
+      <c r="U142" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W142" s="19"/>
+      <c r="X142" s="19"/>
+      <c r="Y142" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z142" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C143" s="8">
+        <v>2</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P143" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S143" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T143" s="16">
+        <v>3</v>
+      </c>
+      <c r="U143" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W143" s="19"/>
+      <c r="X143" s="19"/>
+      <c r="Y143" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z143" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C144" s="9">
+        <v>2</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q144" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T144" s="17">
+        <v>3</v>
+      </c>
+      <c r="U144" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W144" s="19"/>
+      <c r="X144" s="19"/>
+      <c r="Y144" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z144" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C145" s="8">
+        <v>2</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P145" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q145" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S145" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T145" s="16">
+        <v>2</v>
+      </c>
+      <c r="U145" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W145" s="19"/>
+      <c r="X145" s="19"/>
+      <c r="Y145" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z145" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="9">
+        <v>3</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P146" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q146" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S146" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="T146" s="17">
+        <v>3</v>
+      </c>
+      <c r="U146" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W146" s="19"/>
+      <c r="X146" s="19"/>
+      <c r="Y146" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z146" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C147" s="8">
+        <v>3</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P147" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q147" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T147" s="16">
+        <v>3</v>
+      </c>
+      <c r="U147" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z147" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C148" s="9">
+        <v>3</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P148" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q148" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T148" s="17">
+        <v>3</v>
+      </c>
+      <c r="U148" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W148" s="19"/>
+      <c r="X148" s="19"/>
+      <c r="Y148" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z148" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C149" s="8">
+        <v>3</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P149" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q149" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S149" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T149" s="16">
+        <v>3</v>
+      </c>
+      <c r="U149" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W149" s="19"/>
+      <c r="X149" s="19"/>
+      <c r="Y149" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z149" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C150" s="9">
+        <v>2</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P150" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q150" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S150" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T150" s="17">
+        <v>3</v>
+      </c>
+      <c r="U150" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W150" s="19"/>
+      <c r="X150" s="19"/>
+      <c r="Y150" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z150" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="8">
+        <v>1</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P151" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q151" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S151" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T151" s="16">
+        <v>3</v>
+      </c>
+      <c r="U151" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W151" s="19"/>
+      <c r="X151" s="19"/>
+      <c r="Y151" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z151" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C152" s="9">
+        <v>2</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P152" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q152" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S152" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T152" s="17">
+        <v>2</v>
+      </c>
+      <c r="U152" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z152" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C153" s="8">
+        <v>2</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P153" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q153" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S153" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T153" s="16">
+        <v>2</v>
+      </c>
+      <c r="U153" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W153" s="19"/>
+      <c r="X153" s="19"/>
+      <c r="Y153" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z153" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C154" s="9">
+        <v>2</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P154" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q154" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S154" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T154" s="17">
+        <v>2</v>
+      </c>
+      <c r="U154" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W154" s="19"/>
+      <c r="X154" s="19"/>
+      <c r="Y154" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z154" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C155" s="8">
+        <v>2</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P155" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q155" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S155" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T155" s="16">
+        <v>3</v>
+      </c>
+      <c r="U155" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W155" s="19"/>
+      <c r="X155" s="19"/>
+      <c r="Y155" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z155" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C156" s="9">
+        <v>2</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P156" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q156" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T156" s="17">
+        <v>2</v>
+      </c>
+      <c r="U156" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z156" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="C157" s="8">
+        <v>2</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P157" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q157" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T157" s="16">
+        <v>2</v>
+      </c>
+      <c r="U157" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W157" s="19"/>
+      <c r="X157" s="19"/>
+      <c r="Y157" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z157" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C158" s="9">
+        <v>1</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P158" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q158" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S158" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T158" s="17">
+        <v>1</v>
+      </c>
+      <c r="U158" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W158" s="19"/>
+      <c r="X158" s="19"/>
+      <c r="Y158" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z158" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="C159" s="8">
+        <v>2</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P159" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q159" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T159" s="16">
+        <v>3</v>
+      </c>
+      <c r="U159" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W159" s="19"/>
+      <c r="X159" s="19"/>
+      <c r="Y159" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z159" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C160" s="9">
+        <v>1</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P160" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q160" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S160" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T160" s="17">
+        <v>2</v>
+      </c>
+      <c r="U160" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W160" s="19"/>
+      <c r="X160" s="19"/>
+      <c r="Y160" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z160" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="8">
+        <v>1</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P161" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S161" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="T161" s="16">
+        <v>3</v>
+      </c>
+      <c r="U161" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W161" s="19"/>
+      <c r="X161" s="19"/>
+      <c r="Y161" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z161" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="9">
+        <v>3</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="P162" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S162" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T162" s="17">
+        <v>3</v>
+      </c>
+      <c r="U162" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W162" s="19"/>
+      <c r="X162" s="19"/>
+      <c r="Y162" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z162" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="8">
+        <v>1</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P163" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T163" s="16">
+        <v>2</v>
+      </c>
+      <c r="U163" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W163" s="19"/>
+      <c r="X163" s="19"/>
+      <c r="Y163" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z163" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="9">
+        <v>2</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P164" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q164" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S164" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T164" s="17">
+        <v>2</v>
+      </c>
+      <c r="U164" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W164" s="19"/>
+      <c r="X164" s="19"/>
+      <c r="Y164" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z164" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="8">
+        <v>2</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P165" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q165" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S165" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T165" s="16">
+        <v>2</v>
+      </c>
+      <c r="U165" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z165" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="9">
+        <v>2</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P166" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q166" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="S166" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="T166" s="17">
+        <v>2</v>
+      </c>
+      <c r="U166" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z166" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="8">
+        <v>2</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P167" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q167" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="T167" s="16">
+        <v>2</v>
+      </c>
+      <c r="U167" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W167" s="19"/>
+      <c r="X167" s="19"/>
+      <c r="Y167" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z167" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P168" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S168" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T168" s="17">
+        <v>2</v>
+      </c>
+      <c r="U168" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W168" s="19"/>
+      <c r="X168" s="19"/>
+      <c r="Y168" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z168" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="8">
+        <v>2</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P169" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q169" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S169" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T169" s="16">
+        <v>1</v>
+      </c>
+      <c r="U169" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W169" s="19"/>
+      <c r="X169" s="19"/>
+      <c r="Y169" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z169" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="9">
+        <v>1</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P170" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S170" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T170" s="17">
+        <v>2</v>
+      </c>
+      <c r="U170" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W170" s="19"/>
+      <c r="X170" s="19"/>
+      <c r="Y170" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z170" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="8">
+        <v>2</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P171" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q171" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S171" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T171" s="16">
+        <v>2</v>
+      </c>
+      <c r="U171" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W171" s="19"/>
+      <c r="X171" s="19"/>
+      <c r="Y171" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z171" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C172" s="9">
+        <v>1</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P172" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S172" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T172" s="17">
+        <v>2</v>
+      </c>
+      <c r="U172" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W172" s="19"/>
+      <c r="X172" s="19"/>
+      <c r="Y172" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z172" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C173" s="8">
+        <v>1</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P173" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q173" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S173" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T173" s="16">
+        <v>2</v>
+      </c>
+      <c r="U173" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W173" s="19"/>
+      <c r="X173" s="19"/>
+      <c r="Y173" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z173" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C174" s="9">
+        <v>1</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P174" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q174" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S174" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T174" s="17">
+        <v>2</v>
+      </c>
+      <c r="U174" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W174" s="19"/>
+      <c r="X174" s="19"/>
+      <c r="Y174" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z174" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C175" s="8">
+        <v>1</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P175" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q175" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S175" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T175" s="16">
+        <v>2</v>
+      </c>
+      <c r="U175" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W175" s="19"/>
+      <c r="X175" s="19"/>
+      <c r="Y175" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z175" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C176" s="9">
+        <v>1</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P176" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S176" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T176" s="17">
+        <v>2</v>
+      </c>
+      <c r="U176" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W176" s="19"/>
+      <c r="X176" s="19"/>
+      <c r="Y176" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z176" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C177" s="8">
+        <v>1</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P177" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q177" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S177" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T177" s="16">
+        <v>2</v>
+      </c>
+      <c r="U177" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W177" s="19"/>
+      <c r="X177" s="19"/>
+      <c r="Y177" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z177" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C178" s="9">
+        <v>1</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P178" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q178" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S178" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T178" s="17">
+        <v>2</v>
+      </c>
+      <c r="U178" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W178" s="19"/>
+      <c r="X178" s="19"/>
+      <c r="Y178" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z178" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C179" s="8">
+        <v>1</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P179" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q179" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S179" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T179" s="16">
+        <v>2</v>
+      </c>
+      <c r="U179" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W179" s="19"/>
+      <c r="X179" s="19"/>
+      <c r="Y179" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z179" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C180" s="9">
+        <v>1</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P180" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q180" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S180" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T180" s="17">
+        <v>2</v>
+      </c>
+      <c r="U180" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W180" s="19"/>
+      <c r="X180" s="19"/>
+      <c r="Y180" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z180" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C181" s="8">
+        <v>1</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P181" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q181" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S181" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T181" s="16">
+        <v>2</v>
+      </c>
+      <c r="U181" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W181" s="19"/>
+      <c r="X181" s="19"/>
+      <c r="Y181" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z181" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C182" s="9">
+        <v>1</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P182" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q182" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S182" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T182" s="17">
+        <v>2</v>
+      </c>
+      <c r="U182" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W182" s="19"/>
+      <c r="X182" s="19"/>
+      <c r="Y182" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z182" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C183" s="8">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P183" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q183" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S183" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T183" s="16">
+        <v>2</v>
+      </c>
+      <c r="U183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W183" s="19"/>
+      <c r="X183" s="19"/>
+      <c r="Y183" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z183" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C184" s="9">
+        <v>1</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P184" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q184" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S184" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T184" s="17">
+        <v>2</v>
+      </c>
+      <c r="U184" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W184" s="19"/>
+      <c r="X184" s="19"/>
+      <c r="Y184" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z184" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C185" s="8">
+        <v>1</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q185" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S185" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T185" s="16">
+        <v>2</v>
+      </c>
+      <c r="U185" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W185" s="19"/>
+      <c r="X185" s="19"/>
+      <c r="Y185" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z185" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C186" s="9">
+        <v>1</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P186" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q186" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S186" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T186" s="17">
+        <v>2</v>
+      </c>
+      <c r="U186" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W186" s="19"/>
+      <c r="X186" s="19"/>
+      <c r="Y186" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z186" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C187" s="8">
+        <v>1</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q187" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S187" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T187" s="16">
+        <v>2</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W187" s="19"/>
+      <c r="X187" s="19"/>
+      <c r="Y187" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z187" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C188" s="9">
+        <v>1</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P188" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q188" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S188" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T188" s="17">
+        <v>2</v>
+      </c>
+      <c r="U188" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W188" s="19"/>
+      <c r="X188" s="19"/>
+      <c r="Y188" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z188" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C189" s="8">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P189" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q189" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T189" s="16">
+        <v>2</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W189" s="19"/>
+      <c r="X189" s="19"/>
+      <c r="Y189" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z189" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="190" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C190" s="9">
+        <v>1</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P190" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S190" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T190" s="17">
+        <v>2</v>
+      </c>
+      <c r="U190" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W190" s="19"/>
+      <c r="X190" s="19"/>
+      <c r="Y190" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z190" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C191" s="8">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P191" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q191" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S191" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T191" s="16">
+        <v>2</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W191" s="19"/>
+      <c r="X191" s="19"/>
+      <c r="Y191" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z191" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C192" s="9">
+        <v>1</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P192" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S192" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T192" s="17">
+        <v>2</v>
+      </c>
+      <c r="U192" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W192" s="19"/>
+      <c r="X192" s="19"/>
+      <c r="Y192" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z192" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C193" s="8">
+        <v>1</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P193" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q193" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S193" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T193" s="16">
+        <v>2</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W193" s="19"/>
+      <c r="X193" s="19"/>
+      <c r="Y193" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z193" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="194" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" s="9">
+        <v>1</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P194" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q194" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S194" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T194" s="17">
+        <v>2</v>
+      </c>
+      <c r="U194" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W194" s="19"/>
+      <c r="X194" s="19"/>
+      <c r="Y194" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z194" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="8">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P195" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q195" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S195" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T195" s="16">
+        <v>2</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W195" s="19"/>
+      <c r="X195" s="19"/>
+      <c r="Y195" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z195" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P196" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S196" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T196" s="17">
+        <v>2</v>
+      </c>
+      <c r="U196" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W196" s="19"/>
+      <c r="X196" s="19"/>
+      <c r="Y196" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z196" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="197" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C197" s="8">
+        <v>1</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P197" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q197" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S197" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T197" s="16">
+        <v>2</v>
+      </c>
+      <c r="U197" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W197" s="19"/>
+      <c r="X197" s="19"/>
+      <c r="Y197" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z197" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="198" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" s="9">
+        <v>1</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P198" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T198" s="17">
+        <v>2</v>
+      </c>
+      <c r="U198" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W198" s="19"/>
+      <c r="X198" s="19"/>
+      <c r="Y198" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z198" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C199" s="8">
+        <v>1</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P199" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q199" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S199" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T199" s="16">
+        <v>2</v>
+      </c>
+      <c r="U199" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W199" s="19"/>
+      <c r="X199" s="19"/>
+      <c r="Y199" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z199" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C200" s="9">
+        <v>1</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P200" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q200" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S200" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T200" s="17">
+        <v>2</v>
+      </c>
+      <c r="U200" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W200" s="19"/>
+      <c r="X200" s="19"/>
+      <c r="Y200" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z200" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="201" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" s="8">
+        <v>1</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q201" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S201" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T201" s="16">
+        <v>2</v>
+      </c>
+      <c r="U201" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W201" s="19"/>
+      <c r="X201" s="19"/>
+      <c r="Y201" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z201" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="202" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C202" s="9">
+        <v>1</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P202" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q202" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S202" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T202" s="17">
+        <v>2</v>
+      </c>
+      <c r="U202" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W202" s="19"/>
+      <c r="X202" s="19"/>
+      <c r="Y202" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z202" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C203" s="8">
+        <v>1</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P203" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q203" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S203" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T203" s="16">
+        <v>2</v>
+      </c>
+      <c r="U203" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W203" s="19"/>
+      <c r="X203" s="19"/>
+      <c r="Y203" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z203" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C204" s="9">
+        <v>1</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P204" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q204" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S204" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T204" s="17">
+        <v>2</v>
+      </c>
+      <c r="U204" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W204" s="19"/>
+      <c r="X204" s="19"/>
+      <c r="Y204" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z204" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C205" s="8">
+        <v>1</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P205" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q205" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S205" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T205" s="16">
+        <v>2</v>
+      </c>
+      <c r="U205" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W205" s="19"/>
+      <c r="X205" s="19"/>
+      <c r="Y205" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z205" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="206" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C206" s="9">
+        <v>1</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P206" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q206" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S206" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="T206" s="17">
+        <v>2</v>
+      </c>
+      <c r="U206" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W206" s="19"/>
+      <c r="X206" s="19"/>
+      <c r="Y206" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z206" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C207" s="8">
+        <v>1</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P207" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q207" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S207" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="T207" s="16">
+        <v>2</v>
+      </c>
+      <c r="U207" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W207" s="19"/>
+      <c r="X207" s="19"/>
+      <c r="Y207" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z207" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C208" s="9">
+        <v>1</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P208" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S208" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T208" s="17">
+        <v>2</v>
+      </c>
+      <c r="U208" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W208" s="19"/>
+      <c r="X208" s="19"/>
+      <c r="Y208" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z208" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
